--- a/artfynd/A 38847-2022.xlsx
+++ b/artfynd/A 38847-2022.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY10"/>
+  <dimension ref="A1:AY13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1749,6 +1749,395 @@
       </c>
       <c r="AY10" t="inlineStr"/>
     </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>112244426</v>
+      </c>
+      <c r="B11" t="n">
+        <v>77550</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>185</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Violettgrå tagellav</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Bryoria nadvornikiana</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>Berg-Andersberget, Dlr</t>
+        </is>
+      </c>
+      <c r="Q11" t="n">
+        <v>523094</v>
+      </c>
+      <c r="R11" t="n">
+        <v>6739613</v>
+      </c>
+      <c r="S11" t="n">
+        <v>10</v>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>Falun</t>
+        </is>
+      </c>
+      <c r="V11" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>Bjursås</t>
+        </is>
+      </c>
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t>2023-09-22</t>
+        </is>
+      </c>
+      <c r="Z11" t="inlineStr">
+        <is>
+          <t>11:11</t>
+        </is>
+      </c>
+      <c r="AA11" t="inlineStr">
+        <is>
+          <t>2023-09-22</t>
+        </is>
+      </c>
+      <c r="AB11" t="inlineStr">
+        <is>
+          <t>11:11</t>
+        </is>
+      </c>
+      <c r="AD11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ11" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK11" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO11" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AT11" t="inlineStr"/>
+      <c r="AW11" t="inlineStr">
+        <is>
+          <t>Uno Skog</t>
+        </is>
+      </c>
+      <c r="AX11" t="inlineStr">
+        <is>
+          <t>Uno Skog, Anton Björk</t>
+        </is>
+      </c>
+      <c r="AY11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>112243622</v>
+      </c>
+      <c r="B12" t="n">
+        <v>89745</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>2062</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Ulltickeporing</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Skeletocutis brevispora</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Niemelä</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>Berg-Andersberget, Dlr</t>
+        </is>
+      </c>
+      <c r="Q12" t="n">
+        <v>523006</v>
+      </c>
+      <c r="R12" t="n">
+        <v>6739484</v>
+      </c>
+      <c r="S12" t="n">
+        <v>10</v>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>Falun</t>
+        </is>
+      </c>
+      <c r="V12" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W12" t="inlineStr">
+        <is>
+          <t>Bjursås</t>
+        </is>
+      </c>
+      <c r="Y12" t="inlineStr">
+        <is>
+          <t>2023-09-22</t>
+        </is>
+      </c>
+      <c r="Z12" t="inlineStr">
+        <is>
+          <t>10:21</t>
+        </is>
+      </c>
+      <c r="AA12" t="inlineStr">
+        <is>
+          <t>2023-09-22</t>
+        </is>
+      </c>
+      <c r="AB12" t="inlineStr">
+        <is>
+          <t>10:21</t>
+        </is>
+      </c>
+      <c r="AC12" t="inlineStr">
+        <is>
+          <t>På ytmurken granlåga med delvis avfallande bark och insektsgnag i veden från tiden då granen stod upp.</t>
+        </is>
+      </c>
+      <c r="AD12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ12" t="inlineStr">
+        <is>
+          <t>ullticka</t>
+        </is>
+      </c>
+      <c r="AK12" t="inlineStr">
+        <is>
+          <t>Phellinidium ferrugineofuscum</t>
+        </is>
+      </c>
+      <c r="AO12" t="inlineStr">
+        <is>
+          <t>Phellinidium ferrugineofuscum</t>
+        </is>
+      </c>
+      <c r="AT12" t="inlineStr"/>
+      <c r="AW12" t="inlineStr">
+        <is>
+          <t>Uno Skog</t>
+        </is>
+      </c>
+      <c r="AX12" t="inlineStr">
+        <is>
+          <t>Uno Skog, Anton Björk</t>
+        </is>
+      </c>
+      <c r="AY12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>112243230</v>
+      </c>
+      <c r="B13" t="n">
+        <v>89405</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>1202</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Ullticka</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Phellinidium ferrugineofuscum</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>Berg-Andersberget, Dlr</t>
+        </is>
+      </c>
+      <c r="Q13" t="n">
+        <v>523006</v>
+      </c>
+      <c r="R13" t="n">
+        <v>6739484</v>
+      </c>
+      <c r="S13" t="n">
+        <v>10</v>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>Falun</t>
+        </is>
+      </c>
+      <c r="V13" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>Bjursås</t>
+        </is>
+      </c>
+      <c r="Y13" t="inlineStr">
+        <is>
+          <t>2023-09-22</t>
+        </is>
+      </c>
+      <c r="Z13" t="inlineStr">
+        <is>
+          <t>10:16</t>
+        </is>
+      </c>
+      <c r="AA13" t="inlineStr">
+        <is>
+          <t>2023-09-22</t>
+        </is>
+      </c>
+      <c r="AB13" t="inlineStr">
+        <is>
+          <t>10:16</t>
+        </is>
+      </c>
+      <c r="AD13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ13" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK13" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO13" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AT13" t="inlineStr"/>
+      <c r="AW13" t="inlineStr">
+        <is>
+          <t>Uno Skog</t>
+        </is>
+      </c>
+      <c r="AX13" t="inlineStr">
+        <is>
+          <t>Uno Skog, Anton Björk</t>
+        </is>
+      </c>
+      <c r="AY13" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/artfynd/A 38847-2022.xlsx
+++ b/artfynd/A 38847-2022.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY13"/>
+  <dimension ref="A1:AY14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1751,10 +1751,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>112244426</v>
+        <v>112243230</v>
       </c>
       <c r="B11" t="n">
-        <v>77550</v>
+        <v>89539</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1767,21 +1767,21 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>185</v>
+        <v>1202</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Violettgrå tagellav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Bryoria nadvornikiana</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1792,10 +1792,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>523094</v>
+        <v>523006</v>
       </c>
       <c r="R11" t="n">
-        <v>6739613</v>
+        <v>6739484</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1827,7 +1827,7 @@
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>11:11</t>
+          <t>10:16</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
@@ -1837,7 +1837,7 @@
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>11:11</t>
+          <t>10:16</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1879,10 +1879,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>112243622</v>
+        <v>112244426</v>
       </c>
       <c r="B12" t="n">
-        <v>89745</v>
+        <v>77671</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1891,25 +1891,25 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>2062</v>
+        <v>185</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Ulltickeporing</t>
+          <t>Violettgrå tagellav</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Skeletocutis brevispora</t>
+          <t>Bryoria nadvornikiana</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Niemelä</t>
+          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1920,10 +1920,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>523006</v>
+        <v>523094</v>
       </c>
       <c r="R12" t="n">
-        <v>6739484</v>
+        <v>6739613</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1955,7 +1955,7 @@
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>10:21</t>
+          <t>11:11</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
@@ -1965,12 +1965,7 @@
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>10:21</t>
-        </is>
-      </c>
-      <c r="AC12" t="inlineStr">
-        <is>
-          <t>På ytmurken granlåga med delvis avfallande bark och insektsgnag i veden från tiden då granen stod upp.</t>
+          <t>11:11</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1984,17 +1979,17 @@
       </c>
       <c r="AJ12" t="inlineStr">
         <is>
-          <t>ullticka</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK12" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AO12" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT12" t="inlineStr"/>
@@ -2012,10 +2007,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>112243230</v>
+        <v>112243622</v>
       </c>
       <c r="B13" t="n">
-        <v>89405</v>
+        <v>89879</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -2024,25 +2019,25 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>1202</v>
+        <v>2062</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Ulltickeporing</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Skeletocutis brevispora</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>Niemelä</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -2088,7 +2083,7 @@
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>10:16</t>
+          <t>10:21</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
@@ -2098,7 +2093,12 @@
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>10:16</t>
+          <t>10:21</t>
+        </is>
+      </c>
+      <c r="AC13" t="inlineStr">
+        <is>
+          <t>På ytmurken granlåga med delvis avfallande bark och insektsgnag i veden från tiden då granen stod upp.</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2112,17 +2112,17 @@
       </c>
       <c r="AJ13" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>ullticka</t>
         </is>
       </c>
       <c r="AK13" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="AO13" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="AT13" t="inlineStr"/>
@@ -2137,6 +2137,108 @@
         </is>
       </c>
       <c r="AY13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>112316036</v>
+      </c>
+      <c r="B14" t="n">
+        <v>88953</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>5685</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Gullgröppa</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Pseudomerulius aureus</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>(Fr.) Jülich</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>Berg-Andersberget, Dlr</t>
+        </is>
+      </c>
+      <c r="Q14" t="n">
+        <v>523040</v>
+      </c>
+      <c r="R14" t="n">
+        <v>6739554</v>
+      </c>
+      <c r="S14" t="n">
+        <v>5</v>
+      </c>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>Falun</t>
+        </is>
+      </c>
+      <c r="V14" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W14" t="inlineStr">
+        <is>
+          <t>Bjursås</t>
+        </is>
+      </c>
+      <c r="Y14" t="inlineStr">
+        <is>
+          <t>2023-09-22</t>
+        </is>
+      </c>
+      <c r="AA14" t="inlineStr">
+        <is>
+          <t>2023-09-22</t>
+        </is>
+      </c>
+      <c r="AD14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT14" t="inlineStr"/>
+      <c r="AW14" t="inlineStr">
+        <is>
+          <t>Anton Björk</t>
+        </is>
+      </c>
+      <c r="AX14" t="inlineStr">
+        <is>
+          <t>Anton Björk</t>
+        </is>
+      </c>
+      <c r="AY14" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/artfynd/A 38847-2022.xlsx
+++ b/artfynd/A 38847-2022.xlsx
@@ -1751,10 +1751,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>112243230</v>
+        <v>112243622</v>
       </c>
       <c r="B11" t="n">
-        <v>89539</v>
+        <v>89893</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1763,25 +1763,25 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>1202</v>
+        <v>2062</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Ulltickeporing</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Skeletocutis brevispora</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>Niemelä</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1827,7 +1827,7 @@
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>10:16</t>
+          <t>10:21</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
@@ -1837,7 +1837,12 @@
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>10:16</t>
+          <t>10:21</t>
+        </is>
+      </c>
+      <c r="AC11" t="inlineStr">
+        <is>
+          <t>På ytmurken granlåga med delvis avfallande bark och insektsgnag i veden från tiden då granen stod upp.</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1851,17 +1856,17 @@
       </c>
       <c r="AJ11" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>ullticka</t>
         </is>
       </c>
       <c r="AK11" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="AO11" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="AT11" t="inlineStr"/>
@@ -1882,7 +1887,7 @@
         <v>112244426</v>
       </c>
       <c r="B12" t="n">
-        <v>77671</v>
+        <v>77685</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -2007,10 +2012,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>112243622</v>
+        <v>112243230</v>
       </c>
       <c r="B13" t="n">
-        <v>89879</v>
+        <v>89553</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -2019,25 +2024,25 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>2062</v>
+        <v>1202</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Ulltickeporing</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Skeletocutis brevispora</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Niemelä</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -2083,7 +2088,7 @@
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>10:21</t>
+          <t>10:16</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
@@ -2093,12 +2098,7 @@
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>10:21</t>
-        </is>
-      </c>
-      <c r="AC13" t="inlineStr">
-        <is>
-          <t>På ytmurken granlåga med delvis avfallande bark och insektsgnag i veden från tiden då granen stod upp.</t>
+          <t>10:16</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2112,17 +2112,17 @@
       </c>
       <c r="AJ13" t="inlineStr">
         <is>
-          <t>ullticka</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK13" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AO13" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT13" t="inlineStr"/>
@@ -2143,7 +2143,7 @@
         <v>112316036</v>
       </c>
       <c r="B14" t="n">
-        <v>88953</v>
+        <v>88967</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>

--- a/artfynd/A 38847-2022.xlsx
+++ b/artfynd/A 38847-2022.xlsx
@@ -1751,10 +1751,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>112243622</v>
+        <v>112243230</v>
       </c>
       <c r="B11" t="n">
-        <v>89893</v>
+        <v>89553</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1763,25 +1763,25 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>2062</v>
+        <v>1202</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Ulltickeporing</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Skeletocutis brevispora</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Niemelä</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1827,7 +1827,7 @@
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>10:21</t>
+          <t>10:16</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
@@ -1837,12 +1837,7 @@
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>10:21</t>
-        </is>
-      </c>
-      <c r="AC11" t="inlineStr">
-        <is>
-          <t>På ytmurken granlåga med delvis avfallande bark och insektsgnag i veden från tiden då granen stod upp.</t>
+          <t>10:16</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1856,17 +1851,17 @@
       </c>
       <c r="AJ11" t="inlineStr">
         <is>
-          <t>ullticka</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK11" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AO11" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT11" t="inlineStr"/>
@@ -1884,10 +1879,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>112244426</v>
+        <v>112243622</v>
       </c>
       <c r="B12" t="n">
-        <v>77685</v>
+        <v>89893</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1896,25 +1891,25 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>185</v>
+        <v>2062</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Violettgrå tagellav</t>
+          <t>Ulltickeporing</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Bryoria nadvornikiana</t>
+          <t>Skeletocutis brevispora</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
+          <t>Niemelä</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1925,10 +1920,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>523094</v>
+        <v>523006</v>
       </c>
       <c r="R12" t="n">
-        <v>6739613</v>
+        <v>6739484</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1960,7 +1955,7 @@
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>11:11</t>
+          <t>10:21</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
@@ -1970,7 +1965,12 @@
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>11:11</t>
+          <t>10:21</t>
+        </is>
+      </c>
+      <c r="AC12" t="inlineStr">
+        <is>
+          <t>På ytmurken granlåga med delvis avfallande bark och insektsgnag i veden från tiden då granen stod upp.</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1984,17 +1984,17 @@
       </c>
       <c r="AJ12" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>ullticka</t>
         </is>
       </c>
       <c r="AK12" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="AO12" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="AT12" t="inlineStr"/>
@@ -2012,10 +2012,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>112243230</v>
+        <v>112244426</v>
       </c>
       <c r="B13" t="n">
-        <v>89553</v>
+        <v>77685</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -2028,21 +2028,21 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>1202</v>
+        <v>185</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Violettgrå tagellav</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Bryoria nadvornikiana</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -2053,10 +2053,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>523006</v>
+        <v>523094</v>
       </c>
       <c r="R13" t="n">
-        <v>6739484</v>
+        <v>6739613</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2088,7 +2088,7 @@
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>10:16</t>
+          <t>11:11</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
@@ -2098,7 +2098,7 @@
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>10:16</t>
+          <t>11:11</t>
         </is>
       </c>
       <c r="AD13" t="b">
